--- a/device_list.xlsx
+++ b/device_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\z004b1dr\Documents\GitHub\test-repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D342AA78-A257-477C-8671-8ED42575156B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB8ED2-74A9-4C1C-BDC5-9D814B52FCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-4425" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{0F261550-AC4B-421C-AB6F-4B5CC306291A}"/>
   </bookViews>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,10 +1215,10 @@
         <v>60</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">

--- a/device_list.xlsx
+++ b/device_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\z004b1dr\Documents\GitHub\test-repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB8ED2-74A9-4C1C-BDC5-9D814B52FCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2750C31C-12C0-489D-865B-AE3D7CE16D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-4425" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{0F261550-AC4B-421C-AB6F-4B5CC306291A}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
   <si>
     <t>PG1</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>ASUS SDR-08B1-U</t>
-  </si>
-  <si>
-    <t>PHILIPS CSR8510</t>
   </si>
   <si>
     <t>ORICO BTA-403</t>
@@ -769,7 +766,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -1067,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2D586F-BA90-4A62-A34D-C89014B6D188}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:E17"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,7 +1082,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -1116,13 +1113,13 @@
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>6</v>
@@ -1147,7 +1144,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
@@ -1206,13 +1203,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>7</v>
@@ -1226,7 +1223,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>6</v>
@@ -1237,7 +1234,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>6</v>
@@ -1245,94 +1242,83 @@
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="E15" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>37</v>
+      <c r="C16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="9" t="s">
         <v>6</v>
       </c>
     </row>

--- a/device_list.xlsx
+++ b/device_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\z004b1dr\Documents\GitHub\test-repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2750C31C-12C0-489D-865B-AE3D7CE16D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5E7E2C-B2F4-4D8D-A630-C0F6C06CF66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-4425" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{0F261550-AC4B-421C-AB6F-4B5CC306291A}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="69">
   <si>
     <t>PG1</t>
   </si>
@@ -243,6 +243,33 @@
   </si>
   <si>
     <t>N150 Pico USB Wifi Adapter</t>
+  </si>
+  <si>
+    <t>SIMCom SIM7600E-H</t>
+  </si>
+  <si>
+    <t>Huawei ME909s-120</t>
+  </si>
+  <si>
+    <t>Telit LE910C1-WWX</t>
+  </si>
+  <si>
+    <t>Telit LE910C4-WWX</t>
+  </si>
+  <si>
+    <t>Telit LE910C4-EU</t>
+  </si>
+  <si>
+    <t>Telit LE910-EU V2</t>
+  </si>
+  <si>
+    <t>Simcom SIM7600G-H R2</t>
+  </si>
+  <si>
+    <t>Simcom SIM7600SA-H</t>
+  </si>
+  <si>
+    <t>Quecktel EG25-G</t>
   </si>
 </sst>
 </file>
@@ -749,10 +776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220BD30D-AB4B-4341-A6C6-84087A5392BB}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection sqref="A1:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,13 +813,13 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -811,10 +838,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
@@ -825,10 +852,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -839,10 +866,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -855,8 +882,8 @@
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -869,81 +896,81 @@
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
+      <c r="C8" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -951,14 +978,12 @@
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>6</v>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -977,10 +1002,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
@@ -991,72 +1016,204 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="E25" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{220BD30D-AB4B-4341-A6C6-84087A5392BB}"/>
+  <autoFilter ref="A1:E1" xr:uid="{220BD30D-AB4B-4341-A6C6-84087A5392BB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1067,7 +1224,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:E16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,7 +1481,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{FC2D586F-BA90-4A62-A34D-C89014B6D188}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>

--- a/device_list.xlsx
+++ b/device_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\z004b1dr\Documents\GitHub\test-repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5E7E2C-B2F4-4D8D-A630-C0F6C06CF66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E0C42A-1866-42DE-B4A5-E0187F16E9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-4425" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{0F261550-AC4B-421C-AB6F-4B5CC306291A}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="65">
   <si>
     <t>PG1</t>
   </si>
@@ -49,15 +49,6 @@
     <t>PG2</t>
   </si>
   <si>
-    <t>SSD_LEXIANGJIA</t>
-  </si>
-  <si>
-    <t>Adapter_mPCIeToUSB_Wifi</t>
-  </si>
-  <si>
-    <t>Adapter_mPCIeToUSB_Stick</t>
-  </si>
-  <si>
     <t>Quectel EC20</t>
   </si>
   <si>
@@ -67,9 +58,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Hardware</t>
-  </si>
-  <si>
     <t>3G/4G</t>
   </si>
   <si>
@@ -127,24 +115,12 @@
     <t>BCM4329 (Chipset)</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Atheros AR9462</t>
   </si>
   <si>
     <t>Intel AC9260 NGW M.2</t>
   </si>
   <si>
-    <t>Intel AX200NGW M.2</t>
-  </si>
-  <si>
-    <t>Intel AX210NGW M.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not tested</t>
-  </si>
-  <si>
     <t>USB -&gt; RS232 adapter</t>
   </si>
   <si>
@@ -158,12 +134,6 @@
   </si>
   <si>
     <t>Telit LE910-NA1</t>
-  </si>
-  <si>
-    <t>Intel AC 7260</t>
-  </si>
-  <si>
-    <t>Intel AC 6235</t>
   </si>
   <si>
     <t>EDUP EP-N8508GS</t>
@@ -245,9 +215,6 @@
     <t>N150 Pico USB Wifi Adapter</t>
   </si>
   <si>
-    <t>SIMCom SIM7600E-H</t>
-  </si>
-  <si>
     <t>Huawei ME909s-120</t>
   </si>
   <si>
@@ -269,7 +236,28 @@
     <t>Simcom SIM7600SA-H</t>
   </si>
   <si>
-    <t>Quecktel EG25-G</t>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>12d1:15c1</t>
+  </si>
+  <si>
+    <t>Quectel EG25-G</t>
+  </si>
+  <si>
+    <t>Simcom SIM7600E-H</t>
+  </si>
+  <si>
+    <t>Intel AX200 NGW M.2</t>
+  </si>
+  <si>
+    <t>Intel AX210 NGW M.2</t>
+  </si>
+  <si>
+    <t>Intel AC6235</t>
+  </si>
+  <si>
+    <t>Intel AC7260</t>
   </si>
 </sst>
 </file>
@@ -765,7 +753,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -776,15 +764,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220BD30D-AB4B-4341-A6C6-84087A5392BB}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E30"/>
+      <selection activeCell="B1" sqref="B1:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="5"/>
+    <col min="1" max="1" width="11.5546875" style="5"/>
+    <col min="2" max="2" width="13.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="30.109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="33.77734375" style="5" customWidth="1"/>
@@ -793,13 +782,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -810,408 +799,378 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>61</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>60</v>
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>66</v>
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>67</v>
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="D28" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{220BD30D-AB4B-4341-A6C6-84087A5392BB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
-      <sortCondition ref="C1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1224,7 +1183,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,13 +1198,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -1255,234 +1214,240 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="C12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>6</v>
+      <c r="D16" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{FC2D586F-BA90-4A62-A34D-C89014B6D188}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
-      <sortCondition ref="C1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/device_list.xlsx
+++ b/device_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\z004b1dr\Documents\GitHub\test-repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E0C42A-1866-42DE-B4A5-E0187F16E9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF1A53E-F766-4A62-BD0E-BD7C5FB0ACE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-4425" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{0F261550-AC4B-421C-AB6F-4B5CC306291A}"/>
   </bookViews>
@@ -136,9 +136,6 @@
     <t>Telit LE910-NA1</t>
   </si>
   <si>
-    <t>EDUP EP-N8508GS</t>
-  </si>
-  <si>
     <t>Edimax EW-7811UN V1</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Intel AC7260</t>
+  </si>
+  <si>
+    <t>Edup EP-N8508GS</t>
   </si>
 </sst>
 </file>
@@ -782,10 +782,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -813,13 +813,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
@@ -917,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
@@ -931,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>3</v>
@@ -959,7 +959,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>4</v>
@@ -973,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>4</v>
@@ -987,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>4</v>
@@ -1001,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>3</v>
@@ -1085,7 +1085,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
@@ -1099,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>3</v>
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:E16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,10 +1198,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>7</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>11</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>3</v>
@@ -1280,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>3</v>
@@ -1294,7 +1294,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>3</v>
@@ -1305,13 +1305,13 @@
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>3</v>
@@ -1322,13 +1322,13 @@
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>3</v>
@@ -1342,7 +1342,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>3</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>12</v>
@@ -1370,13 +1370,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>3</v>
@@ -1390,7 +1390,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>4</v>
@@ -1404,7 +1404,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>3</v>
@@ -1418,7 +1418,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>3</v>
@@ -1429,13 +1429,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>4</v>

--- a/device_list.xlsx
+++ b/device_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\z004b1dr\Documents\GitHub\test-repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF1A53E-F766-4A62-BD0E-BD7C5FB0ACE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AED2DDE-B684-4692-8C25-AB8112533C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-4425" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{0F261550-AC4B-421C-AB6F-4B5CC306291A}"/>
   </bookViews>
@@ -209,9 +209,6 @@
     <t>2001:331b</t>
   </si>
   <si>
-    <t>N150 Pico USB Wifi Adapter</t>
-  </si>
-  <si>
     <t>Huawei ME909s-120</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Edup EP-N8508GS</t>
+  </si>
+  <si>
+    <t>D-Link DWA-121</t>
   </si>
 </sst>
 </file>
@@ -785,7 +785,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -813,13 +813,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
@@ -917,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
@@ -931,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>3</v>
@@ -959,7 +959,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>4</v>
@@ -973,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>4</v>
@@ -987,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>4</v>
@@ -1001,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>3</v>
@@ -1085,7 +1085,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
@@ -1099,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>3</v>
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1201,7 +1201,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>7</v>
@@ -1418,7 +1418,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>3</v>
@@ -1435,7 +1435,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>4</v>
